--- a/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="151">
   <si>
     <t>土地坐落</t>
   </si>
@@ -289,6 +289,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>南亞</t>
   </si>
   <si>
@@ -335,6 +344,9 @@
   </si>
   <si>
     <t>’vf 9,435</t>
+  </si>
+  <si>
+    <t>2012-04-25</t>
   </si>
   <si>
     <t>名稱</t>
@@ -999,19 +1011,19 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1019,22 +1031,22 @@
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2">
         <v>1880257</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1989,13 +2001,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
@@ -2014,13 +2026,22 @@
       <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2037,13 +2058,22 @@
       <c r="G2" s="2">
         <v>83250</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -2060,13 +2090,22 @@
       <c r="G3" s="2">
         <v>1980</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -2083,13 +2122,22 @@
       <c r="G4" s="2">
         <v>210550</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2106,13 +2154,22 @@
       <c r="G5" s="2">
         <v>269240</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2129,13 +2186,22 @@
       <c r="G6" s="2">
         <v>61880</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2152,13 +2218,22 @@
       <c r="G7" s="2">
         <v>5430</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2175,13 +2250,22 @@
       <c r="G8" s="2">
         <v>3310</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2198,13 +2282,22 @@
       <c r="G9" s="2">
         <v>14160</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2221,13 +2314,22 @@
       <c r="G10" s="2">
         <v>129640</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2244,19 +2346,28 @@
       <c r="G11" s="2">
         <v>690</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
@@ -2267,13 +2378,22 @@
       <c r="G12" s="2">
         <v>94350</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2290,13 +2410,22 @@
       <c r="G13" s="2">
         <v>9250</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2313,16 +2442,25 @@
       <c r="G14" s="2">
         <v>520</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2">
         <v>100000</v>
@@ -2335,6 +2473,15 @@
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1322</v>
       </c>
     </row>
   </sheetData>
@@ -2352,22 +2499,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>55</v>
@@ -2378,13 +2525,13 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -2393,7 +2540,7 @@
         <v>22.84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H2" s="2">
         <v>41496.53</v>
@@ -2404,13 +2551,13 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2419,7 +2566,7 @@
         <v>116.18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H3" s="2">
         <v>28185.97</v>
@@ -2430,13 +2577,13 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2445,7 +2592,7 @@
         <v>9.51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H4" s="2">
         <v>32388.53</v>
@@ -2456,13 +2603,13 @@
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -2471,7 +2618,7 @@
         <v>83.19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H5" s="2">
         <v>69261.17</v>
@@ -2482,13 +2629,13 @@
         <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -2497,7 +2644,7 @@
         <v>103.08</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H6" s="2">
         <v>77195.38</v>
@@ -2508,13 +2655,13 @@
         <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2">
         <v>1417.48</v>
@@ -2523,7 +2670,7 @@
         <v>25.26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H7" s="2">
         <v>1077746.9</v>
@@ -2534,13 +2681,13 @@
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2">
         <v>25.27</v>
@@ -2549,7 +2696,7 @@
         <v>89.31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H8" s="2">
         <v>89552.35</v>
@@ -2560,13 +2707,13 @@
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E9" s="2">
         <v>101.89</v>
@@ -2575,7 +2722,7 @@
         <v>30.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H9" s="2">
         <v>94766.87</v>
@@ -2586,13 +2733,13 @@
         <v>122</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E10" s="2">
         <v>71.55</v>
@@ -2601,7 +2748,7 @@
         <v>43.61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H10" s="2">
         <v>93920.89</v>
@@ -2622,16 +2769,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2639,7 +2786,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2666,13 +2813,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2680,10 +2827,10 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2694,10 +2841,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2708,10 +2855,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2722,10 +2869,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -2736,10 +2883,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>79</v>
@@ -2750,10 +2897,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>

--- a/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="153">
   <si>
     <t>土地坐落</t>
   </si>
@@ -289,6 +289,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -343,7 +346,10 @@
     <t>劉娼娟</t>
   </si>
   <si>
-    <t>’vf 9,435</t>
+    <t>’vf9435</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-25</t>
@@ -1011,19 +1017,19 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1031,22 +1037,22 @@
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>1880257</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2001,13 +2007,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
@@ -2035,13 +2041,16 @@
       <c r="J1" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2059,21 +2068,24 @@
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -2091,21 +2103,24 @@
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -2123,21 +2138,24 @@
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2155,21 +2173,24 @@
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2187,21 +2208,24 @@
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2219,21 +2243,24 @@
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2251,21 +2278,24 @@
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2283,21 +2313,24 @@
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2315,21 +2348,24 @@
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2347,27 +2383,30 @@
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
@@ -2379,21 +2418,24 @@
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2411,21 +2453,24 @@
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2443,24 +2488,27 @@
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2">
         <v>100000</v>
@@ -2475,12 +2523,15 @@
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>1322</v>
       </c>
     </row>
@@ -2499,22 +2550,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>55</v>
@@ -2525,13 +2576,13 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -2540,7 +2591,7 @@
         <v>22.84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H2" s="2">
         <v>41496.53</v>
@@ -2551,13 +2602,13 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2566,7 +2617,7 @@
         <v>116.18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H3" s="2">
         <v>28185.97</v>
@@ -2577,13 +2628,13 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2592,7 +2643,7 @@
         <v>9.51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="2">
         <v>32388.53</v>
@@ -2603,13 +2654,13 @@
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -2618,7 +2669,7 @@
         <v>83.19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2">
         <v>69261.17</v>
@@ -2629,13 +2680,13 @@
         <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -2644,7 +2695,7 @@
         <v>103.08</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2">
         <v>77195.38</v>
@@ -2655,13 +2706,13 @@
         <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2">
         <v>1417.48</v>
@@ -2670,7 +2721,7 @@
         <v>25.26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H7" s="2">
         <v>1077746.9</v>
@@ -2681,13 +2732,13 @@
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2">
         <v>25.27</v>
@@ -2696,7 +2747,7 @@
         <v>89.31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H8" s="2">
         <v>89552.35</v>
@@ -2707,13 +2758,13 @@
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2">
         <v>101.89</v>
@@ -2722,7 +2773,7 @@
         <v>30.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H9" s="2">
         <v>94766.87</v>
@@ -2733,13 +2784,13 @@
         <v>122</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2">
         <v>71.55</v>
@@ -2748,7 +2799,7 @@
         <v>43.61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H10" s="2">
         <v>93920.89</v>
@@ -2769,16 +2820,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2786,7 +2837,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2813,13 +2864,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2827,10 +2878,10 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2841,10 +2892,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2855,10 +2906,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2869,10 +2920,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -2883,10 +2934,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>79</v>
@@ -2897,10 +2948,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>

--- a/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="158">
   <si>
     <t>土地坐落</t>
   </si>
@@ -292,6 +292,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -301,6 +304,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>南亞</t>
   </si>
   <si>
@@ -346,13 +355,19 @@
     <t>劉娼娟</t>
   </si>
   <si>
-    <t>’vf9435</t>
+    <t>9435</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-25</t>
+  </si>
+  <si>
+    <t>tmpe4eb1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1017,19 +1032,19 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1037,22 +1052,22 @@
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2">
         <v>1880257</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2007,13 +2022,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
@@ -2044,13 +2059,22 @@
       <c r="K1" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2068,24 +2092,33 @@
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -2103,24 +2136,33 @@
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -2138,24 +2180,33 @@
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2173,24 +2224,33 @@
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2208,24 +2268,33 @@
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2243,24 +2312,33 @@
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2278,24 +2356,33 @@
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2313,24 +2400,33 @@
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2348,24 +2444,33 @@
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2383,30 +2488,39 @@
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
@@ -2418,24 +2532,33 @@
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2453,24 +2576,33 @@
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2488,27 +2620,36 @@
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2">
         <v>100000</v>
@@ -2523,16 +2664,25 @@
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>1322</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2550,22 +2700,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>55</v>
@@ -2576,13 +2726,13 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -2591,7 +2741,7 @@
         <v>22.84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H2" s="2">
         <v>41496.53</v>
@@ -2602,13 +2752,13 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2617,7 +2767,7 @@
         <v>116.18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H3" s="2">
         <v>28185.97</v>
@@ -2628,13 +2778,13 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2643,7 +2793,7 @@
         <v>9.51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H4" s="2">
         <v>32388.53</v>
@@ -2654,13 +2804,13 @@
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -2669,7 +2819,7 @@
         <v>83.19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H5" s="2">
         <v>69261.17</v>
@@ -2680,13 +2830,13 @@
         <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -2695,7 +2845,7 @@
         <v>103.08</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2">
         <v>77195.38</v>
@@ -2706,13 +2856,13 @@
         <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2">
         <v>1417.48</v>
@@ -2721,7 +2871,7 @@
         <v>25.26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H7" s="2">
         <v>1077746.9</v>
@@ -2732,13 +2882,13 @@
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2">
         <v>25.27</v>
@@ -2747,7 +2897,7 @@
         <v>89.31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H8" s="2">
         <v>89552.35</v>
@@ -2758,13 +2908,13 @@
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2">
         <v>101.89</v>
@@ -2773,7 +2923,7 @@
         <v>30.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H9" s="2">
         <v>94766.87</v>
@@ -2784,13 +2934,13 @@
         <v>122</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2">
         <v>71.55</v>
@@ -2799,7 +2949,7 @@
         <v>43.61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H10" s="2">
         <v>93920.89</v>
@@ -2820,16 +2970,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2837,7 +2987,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2864,13 +3014,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2878,10 +3028,10 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2892,10 +3042,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2906,10 +3056,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2920,10 +3070,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -2934,10 +3084,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>79</v>
@@ -2948,10 +3098,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>

--- a/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
@@ -23,9 +23,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="158">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="160">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02300001地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02300000地號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段06420000地號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段06530000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區懷生段三小段04960000地號</t>
+  </si>
+  <si>
+    <t>10000分之34</t>
+  </si>
+  <si>
+    <t>26590分之90</t>
+  </si>
+  <si>
+    <t>1000000分之7721</t>
+  </si>
+  <si>
+    <t>1000000分之60</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>吳育昇</t>
+  </si>
+  <si>
+    <t>劉娟娟</t>
+  </si>
+  <si>
+    <t>76年01月01曰</t>
+  </si>
+  <si>
+    <t>76年01月01日</t>
+  </si>
+  <si>
+    <t>95年03月15曰</t>
+  </si>
+  <si>
+    <t>85年01月19日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-25</t>
+  </si>
+  <si>
+    <t>tmpe4eb1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -46,118 +154,61 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段 0230-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 0230-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段0642-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段0653-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區懷生段三小段 0496-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 34</t>
-  </si>
-  <si>
-    <t>26590分之 90</t>
-  </si>
-  <si>
-    <t>1000000 分 之 7721</t>
-  </si>
-  <si>
-    <t>1000000 分 之60</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>吳育昇</t>
-  </si>
-  <si>
-    <t>劉娟娟</t>
-  </si>
-  <si>
-    <t>76年01月 01曰</t>
-  </si>
-  <si>
-    <t>76年01月 01日</t>
-  </si>
-  <si>
-    <t>95年03月 15曰</t>
-  </si>
-  <si>
-    <t>85年01月 19日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區懷生段三小段 02158-000建號(（陽台5.05平 方公尺,露台7.57平方公尺））</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 01814-000 建號（（陽台 16.18 平 方公尺)）</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01616-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01759-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01760-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01761 -000</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01762-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01769-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01770-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01825-000 建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01826-000 建號</t>
+    <t>臺北市大安區懷生段三小段02158000建號(（陽台5.05平方公尺露台7.57平方公尺））</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段01814000建號（（陽台16.18平方公尺)）</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01616000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01759000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01760000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01761000</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01762000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01769000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01770000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01825000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01826000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>100000 分 之303</t>
-  </si>
-  <si>
-    <t>100000 分</t>
-  </si>
-  <si>
-    <t>100000 之303</t>
+    <t>100000分之303</t>
+  </si>
+  <si>
+    <t>100000分</t>
+  </si>
+  <si>
+    <t>100000之303</t>
   </si>
   <si>
     <t>分</t>
   </si>
   <si>
-    <t>95年03月 15日</t>
+    <t>95年03月15日</t>
   </si>
   <si>
     <t>95年03月</t>
   </si>
   <si>
-    <t>crxi-s^ 貝賣</t>
+    <t>crxis貝賣</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -175,16 +226,16 @@
     <t>LEXUS</t>
   </si>
   <si>
-    <t>93年07月 20日</t>
-  </si>
-  <si>
-    <t>101 年 02 月17曰</t>
+    <t>93年07月20日</t>
+  </si>
+  <si>
+    <t>101年02月17曰</t>
   </si>
   <si>
     <t>貝賣</t>
   </si>
   <si>
-    <t>1，192,000</t>
+    <t>1192000</t>
   </si>
   <si>
     <t>幣別</t>
@@ -202,10 +253,10 @@
     <t>種類</t>
   </si>
   <si>
-    <t>台北富邦商業銀行信義分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行農安分 行</t>
+    <t>台北富邦商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行農安分行</t>
   </si>
   <si>
     <t>台新國際商業銀行</t>
@@ -271,12 +322,6 @@
     <t>吳〇庭</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -289,27 +334,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>南亞</t>
   </si>
   <si>
@@ -361,15 +385,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-25</t>
-  </si>
-  <si>
-    <t>tmpe4eb1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -403,21 +418,12 @@
     <t>摩根大中華</t>
   </si>
   <si>
-    <t>坦伯頓全球亞洲 成長</t>
+    <t>坦伯頓全球亞洲成長</t>
   </si>
   <si>
     <t>富達拉丁美洲</t>
   </si>
   <si>
-    <t>台北富邦商業 銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業 銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業 銀行</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -427,7 +433,7 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/</t>
+    <t>項</t>
   </si>
   <si>
     <t>價</t>
@@ -490,10 +496,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>臺灣土地銀行萬華分行 臺北市萬華區西園路</t>
-  </si>
-  <si>
-    <t>95年03月 20日</t>
+    <t>臺灣土地銀行萬華分行臺北市萬華區西園路</t>
+  </si>
+  <si>
+    <t>95年03月20日</t>
   </si>
   <si>
     <t>貸款</t>
@@ -855,13 +861,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,135 +889,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1808</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="M2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2659</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="M3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4324.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="M4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>3083.12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="M5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1029,22 +1161,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1052,22 +1184,22 @@
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2">
         <v>1880257</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1085,25 +1217,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -1112,25 +1244,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>62.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1139,25 +1271,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>131.42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -1166,25 +1298,25 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>163.72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1193,25 +1325,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>88.29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -1220,25 +1352,25 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>36.83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1247,25 +1379,25 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>51.15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -1274,28 +1406,28 @@
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <v>186.48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1303,28 +1435,28 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
         <v>480.06</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1332,28 +1464,28 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2">
         <v>547.61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1361,28 +1493,28 @@
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2">
         <v>1132.07</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1390,28 +1522,28 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2">
         <v>605.17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1429,22 +1561,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1452,19 +1584,19 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>1275</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2">
         <v>376000</v>
@@ -1475,22 +1607,22 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
         <v>1798</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1508,13 +1640,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1522,10 +1654,10 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>50000</v>
@@ -1536,10 +1668,10 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>100000</v>
@@ -1560,19 +1692,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1580,16 +1712,16 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>569877</v>
@@ -1600,16 +1732,16 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>24364</v>
@@ -1620,16 +1752,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>16434</v>
@@ -1640,16 +1772,16 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
         <v>50</v>
@@ -1660,16 +1792,16 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
         <v>117869</v>
@@ -1680,16 +1812,16 @@
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F7" s="2">
         <v>143338</v>
@@ -1700,16 +1832,16 @@
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>22891</v>
@@ -1720,16 +1852,16 @@
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2">
         <v>921</v>
@@ -1740,16 +1872,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>265313</v>
@@ -1760,16 +1892,16 @@
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2">
         <v>685728</v>
@@ -1780,16 +1912,16 @@
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F12" s="2">
         <v>652044</v>
@@ -1800,16 +1932,16 @@
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
         <v>281</v>
@@ -1820,16 +1952,16 @@
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
         <v>345298</v>
@@ -1840,16 +1972,16 @@
         <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2">
         <v>163927</v>
@@ -1860,16 +1992,16 @@
         <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2">
         <v>760398</v>
@@ -1880,16 +2012,16 @@
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
         <v>881899</v>
@@ -1900,16 +2032,16 @@
         <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2">
         <v>54</v>
@@ -1920,16 +2052,16 @@
         <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2">
         <v>5805861</v>
@@ -1940,16 +2072,16 @@
         <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2">
         <v>61292</v>
@@ -1960,16 +2092,16 @@
         <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2">
         <v>76366</v>
@@ -1980,16 +2112,16 @@
         <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F22" s="2">
         <v>2335893</v>
@@ -2000,16 +2132,16 @@
         <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2">
         <v>1000000</v>
@@ -2030,43 +2162,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2074,10 +2206,10 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>8325</v>
@@ -2086,28 +2218,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2">
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1322</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N2" s="2">
         <v>90</v>
@@ -2118,10 +2250,10 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>198</v>
@@ -2130,28 +2262,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1322</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N3" s="2">
         <v>91</v>
@@ -2162,10 +2294,10 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>21055</v>
@@ -2174,28 +2306,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1322</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N4" s="2">
         <v>92</v>
@@ -2206,10 +2338,10 @@
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>26924</v>
@@ -2218,28 +2350,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1322</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2">
         <v>93</v>
@@ -2250,10 +2382,10 @@
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>6188</v>
@@ -2262,28 +2394,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1322</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N6" s="2">
         <v>94</v>
@@ -2294,10 +2426,10 @@
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>543</v>
@@ -2306,28 +2438,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2">
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>1322</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2">
         <v>95</v>
@@ -2338,10 +2470,10 @@
         <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>331</v>
@@ -2350,28 +2482,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2">
         <v>1322</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N8" s="2">
         <v>96</v>
@@ -2382,10 +2514,10 @@
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>1416</v>
@@ -2394,28 +2526,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>1322</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N9" s="2">
         <v>97</v>
@@ -2426,10 +2558,10 @@
         <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>12964</v>
@@ -2438,28 +2570,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G10" s="2">
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <v>1322</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N10" s="2">
         <v>98</v>
@@ -2470,10 +2602,10 @@
         <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>69</v>
@@ -2482,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2">
         <v>1322</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N11" s="2">
         <v>99</v>
@@ -2514,40 +2646,40 @@
         <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2">
         <v>1322</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N12" s="2">
         <v>101</v>
@@ -2558,10 +2690,10 @@
         <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
         <v>925</v>
@@ -2570,28 +2702,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L13" s="2">
         <v>1322</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N13" s="2">
         <v>102</v>
@@ -2602,10 +2734,10 @@
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
         <v>52</v>
@@ -2614,28 +2746,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L14" s="2">
         <v>1322</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N14" s="2">
         <v>103</v>
@@ -2646,10 +2778,10 @@
         <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2">
         <v>100000</v>
@@ -2658,28 +2790,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L15" s="2">
         <v>1322</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N15" s="2">
         <v>104</v>
@@ -2700,25 +2832,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2726,13 +2858,13 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -2741,7 +2873,7 @@
         <v>22.84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H2" s="2">
         <v>41496.53</v>
@@ -2752,13 +2884,13 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -2767,7 +2899,7 @@
         <v>116.18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H3" s="2">
         <v>28185.97</v>
@@ -2778,13 +2910,13 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -2793,7 +2925,7 @@
         <v>9.51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H4" s="2">
         <v>32388.53</v>
@@ -2804,13 +2936,13 @@
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -2819,7 +2951,7 @@
         <v>83.19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2">
         <v>69261.17</v>
@@ -2830,13 +2962,13 @@
         <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -2845,7 +2977,7 @@
         <v>103.08</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H6" s="2">
         <v>77195.38</v>
@@ -2856,13 +2988,13 @@
         <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
         <v>1417.48</v>
@@ -2871,7 +3003,7 @@
         <v>25.26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H7" s="2">
         <v>1077746.9</v>
@@ -2882,13 +3014,13 @@
         <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2">
         <v>25.27</v>
@@ -2897,7 +3029,7 @@
         <v>89.31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H8" s="2">
         <v>89552.35</v>
@@ -2908,13 +3040,13 @@
         <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
         <v>101.89</v>
@@ -2923,7 +3055,7 @@
         <v>30.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H9" s="2">
         <v>94766.87</v>
@@ -2934,13 +3066,13 @@
         <v>122</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2">
         <v>71.55</v>
@@ -2949,7 +3081,7 @@
         <v>43.61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H10" s="2">
         <v>93920.89</v>
@@ -2970,16 +3102,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2987,13 +3119,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>2773800</v>
@@ -3014,13 +3146,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3028,13 +3160,13 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3042,13 +3174,13 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3056,13 +3188,13 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3070,13 +3202,13 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3084,13 +3216,13 @@
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3098,13 +3230,13 @@
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -67,7 +67,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段02300001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市大安區通化段一小段02300000地號</t>
@@ -82,9 +85,6 @@
     <t>臺北市大安區懷生段三小段04960000地號</t>
   </si>
   <si>
-    <t>10000分之34</t>
-  </si>
-  <si>
     <t>26590分之90</t>
   </si>
   <si>
@@ -103,9 +103,6 @@
     <t>劉娟娟</t>
   </si>
   <si>
-    <t>76年01月01曰</t>
-  </si>
-  <si>
     <t>76年01月01日</t>
   </si>
   <si>
@@ -133,30 +130,12 @@
     <t>tmpe4eb1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市大安區懷生段三小段02158000建號(（陽台5.05平方公尺露台7.57平方公尺））</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>臺北市大安區通化段一小段01814000建號（（陽台16.18平方公尺)）</t>
   </si>
   <si>
@@ -187,9 +166,6 @@
     <t>新北市淡水區海天段01826000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>100000分之303</t>
   </si>
   <si>
@@ -211,51 +187,33 @@
     <t>crxis貝賣</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>曰產</t>
   </si>
   <si>
+    <t>93年07月20日</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
     <t>LEXUS</t>
   </si>
   <si>
-    <t>93年07月20日</t>
-  </si>
-  <si>
     <t>101年02月17曰</t>
   </si>
   <si>
-    <t>貝賣</t>
-  </si>
-  <si>
     <t>1192000</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>台北富邦商業銀行信義分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行農安分行</t>
   </si>
   <si>
@@ -298,9 +256,6 @@
     <t>安泰商業銀行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -331,12 +286,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>南亞</t>
-  </si>
-  <si>
     <t>台灣積電</t>
   </si>
   <si>
@@ -385,24 +334,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>施羅德新興亞洲</t>
   </si>
   <si>
+    <t>美金</t>
+  </si>
+  <si>
     <t>貝萊德新興歐洲</t>
   </si>
   <si>
@@ -424,36 +361,18 @@
     <t>富達拉丁美洲</t>
   </si>
   <si>
-    <t>美金</t>
-  </si>
-  <si>
     <t>歐元</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
     <t>黃金存摺</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>大都會國際人壽</t>
   </si>
   <si>
+    <t>大都會終身壽險</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
@@ -463,9 +382,6 @@
     <t>友邦人壽</t>
   </si>
   <si>
-    <t>大都會終身壽險</t>
-  </si>
-  <si>
     <t>富邦人壽子女儲蓄保險</t>
   </si>
   <si>
@@ -476,21 +392,6 @@
   </si>
   <si>
     <t>南山康寧終身壽險</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -861,13 +762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,19 +811,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1808</v>
+        <v>2659</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -931,19 +838,19 @@
         <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
@@ -952,45 +859,51 @@
         <v>1322</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00338473110191801</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2659</v>
+        <v>4324.24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -999,45 +912,51 @@
         <v>1322</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.007721</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>33.38745704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>4324.24</v>
+        <v>3083.12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
@@ -1046,24 +965,30 @@
         <v>1322</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6e-05</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.1849872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>3083.12</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1072,19 +997,19 @@
         <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
@@ -1093,57 +1018,16 @@
         <v>1322</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>117</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1322</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="2">
-        <v>18</v>
+      <c r="P5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>23.4</v>
       </c>
     </row>
   </sheetData>
@@ -1152,6 +1036,356 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1880257</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>62.37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
+        <v>131.42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2">
+        <v>163.72</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2">
+        <v>88.29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>36.83</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2">
+        <v>51.15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
+        <v>186.48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>480.06</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2">
+        <v>547.61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1132.07</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2">
+        <v>605.17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1161,468 +1395,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1275</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>56</v>
+      </c>
+      <c r="G1" s="1">
+        <v>376000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1798</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1880257</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2">
-        <v>62.37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2">
-        <v>131.42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2">
-        <v>163.72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2">
-        <v>88.29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2">
-        <v>36.83</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2">
-        <v>51.15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2">
-        <v>186.48</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2">
-        <v>480.06</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2">
-        <v>547.61</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1132.07</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="2">
-        <v>605.17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1275</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="2">
-        <v>376000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1798</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1640,40 +1451,26 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="D1" s="1">
+        <v>50000</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>57</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2">
         <v>100000</v>
       </c>
     </row>
@@ -1684,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1692,458 +1489,438 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="F1" s="1">
+        <v>569877</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="2">
-        <v>569877</v>
+        <v>24364</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2">
-        <v>24364</v>
+        <v>16434</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2">
-        <v>16434</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>50</v>
+        <v>117869</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="2">
-        <v>117869</v>
+        <v>143338</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
-        <v>143338</v>
+        <v>22891</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2">
-        <v>22891</v>
+        <v>921</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
-        <v>921</v>
+        <v>265313</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2">
-        <v>265313</v>
+        <v>685728</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2">
-        <v>685728</v>
+        <v>652044</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2">
-        <v>652044</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
-        <v>281</v>
+        <v>345298</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
-        <v>345298</v>
+        <v>163927</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2">
-        <v>163927</v>
+        <v>760398</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
-        <v>760398</v>
+        <v>881899</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="2">
-        <v>881899</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="2">
-        <v>54</v>
+        <v>5805861</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2">
-        <v>5805861</v>
+        <v>61292</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="F20" s="2">
-        <v>61292</v>
+        <v>76366</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="F21" s="2">
-        <v>76366</v>
+        <v>2335893</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="2">
-        <v>2335893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>83</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="2">
         <v>1000000</v>
       </c>
     </row>
@@ -2154,7 +1931,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2168,16 +1945,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2203,34 +1980,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>8325</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
-        <v>83250</v>
+        <v>1980</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -2239,42 +2016,42 @@
         <v>1322</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>198</v>
+        <v>21055</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
-        <v>1980</v>
+        <v>210550</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -2283,42 +2060,42 @@
         <v>1322</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>21055</v>
+        <v>26924</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
-        <v>210550</v>
+        <v>269240</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -2327,42 +2104,42 @@
         <v>1322</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2">
-        <v>26924</v>
+        <v>6188</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
-        <v>269240</v>
+        <v>61880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>24</v>
@@ -2371,42 +2148,42 @@
         <v>1322</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2">
-        <v>6188</v>
+        <v>543</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
-        <v>61880</v>
+        <v>5430</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>24</v>
@@ -2415,42 +2192,42 @@
         <v>1322</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2">
-        <v>543</v>
+        <v>331</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2">
-        <v>5430</v>
+        <v>3310</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>24</v>
@@ -2459,42 +2236,42 @@
         <v>1322</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>331</v>
+        <v>1416</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2">
-        <v>3310</v>
+        <v>14160</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>24</v>
@@ -2503,42 +2280,42 @@
         <v>1322</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2">
-        <v>1416</v>
+        <v>12964</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2">
-        <v>14160</v>
+        <v>129640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>24</v>
@@ -2547,42 +2324,42 @@
         <v>1322</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>12964</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2">
-        <v>129640</v>
+        <v>690</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>24</v>
@@ -2591,42 +2368,42 @@
         <v>1322</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2">
-        <v>69</v>
+      <c r="D11" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2">
-        <v>690</v>
+        <v>94350</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>24</v>
@@ -2635,42 +2412,42 @@
         <v>1322</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>118</v>
+      <c r="D12" s="2">
+        <v>925</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2">
-        <v>94350</v>
+        <v>9250</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>24</v>
@@ -2679,42 +2456,42 @@
         <v>1322</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2">
-        <v>9250</v>
+        <v>520</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>24</v>
@@ -2723,42 +2500,42 @@
         <v>1322</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
-        <v>52</v>
+        <v>100000</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2">
-        <v>520</v>
+        <v>1000000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>24</v>
@@ -2767,53 +2544,9 @@
         <v>1322</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
-        <v>104</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E15" s="2">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1322</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="2">
         <v>104</v>
       </c>
     </row>
@@ -2824,7 +2557,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2832,258 +2565,232 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>74</v>
+      </c>
+      <c r="E1" s="1">
+        <v>60.36</v>
+      </c>
+      <c r="F1" s="1">
+        <v>22.84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>104</v>
+      </c>
+      <c r="H1" s="1">
+        <v>41496.53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
-        <v>60.36</v>
+        <v>8.06</v>
       </c>
       <c r="F2" s="2">
-        <v>22.84</v>
+        <v>116.18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="H2" s="2">
-        <v>41496.53</v>
+        <v>28185.97</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
-        <v>8.06</v>
+        <v>85.83</v>
       </c>
       <c r="F3" s="2">
-        <v>116.18</v>
+        <v>9.51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H3" s="2">
-        <v>28185.97</v>
+        <v>32388.53</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2">
-        <v>85.83</v>
+        <v>27.66</v>
       </c>
       <c r="F4" s="2">
-        <v>9.51</v>
+        <v>83.19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="H4" s="2">
-        <v>32388.53</v>
+        <v>69261.17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2">
-        <v>27.66</v>
+        <v>24.88</v>
       </c>
       <c r="F5" s="2">
-        <v>83.19</v>
+        <v>103.08</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="H5" s="2">
-        <v>69261.17</v>
+        <v>77195.38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2">
-        <v>24.88</v>
+        <v>1417.48</v>
       </c>
       <c r="F6" s="2">
-        <v>103.08</v>
+        <v>25.26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="H6" s="2">
-        <v>77195.38</v>
+        <v>1077746.9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2">
-        <v>1417.48</v>
+        <v>25.27</v>
       </c>
       <c r="F7" s="2">
-        <v>25.26</v>
+        <v>89.31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2">
-        <v>1077746.9</v>
+        <v>89552.35</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2">
-        <v>25.27</v>
+        <v>101.89</v>
       </c>
       <c r="F8" s="2">
-        <v>89.31</v>
+        <v>30.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="H8" s="2">
-        <v>89552.35</v>
+        <v>94766.87</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2">
-        <v>101.89</v>
+        <v>71.55</v>
       </c>
       <c r="F9" s="2">
-        <v>30.9</v>
+        <v>43.61</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="H9" s="2">
-        <v>94766.87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>122</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="2">
-        <v>71.55</v>
-      </c>
-      <c r="F10" s="2">
-        <v>43.61</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="2">
         <v>93920.89</v>
       </c>
     </row>
@@ -3094,40 +2801,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>130</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1">
         <v>2773800</v>
       </c>
     </row>
@@ -3138,7 +2828,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3146,24 +2836,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -3171,13 +2861,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -3185,13 +2875,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -3199,43 +2889,29 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>141</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -73,6 +73,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區通化段一小段02300001地號</t>
+  </si>
+  <si>
     <t>臺北市大安區通化段一小段02300000地號</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>臺北市大安區懷生段三小段04960000地號</t>
   </si>
   <si>
+    <t>10000分之34</t>
+  </si>
+  <si>
     <t>26590分之90</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>劉娟娟</t>
   </si>
   <si>
+    <t>76年01月01曰</t>
+  </si>
+  <si>
     <t>76年01月01日</t>
   </si>
   <si>
@@ -133,60 +142,45 @@
     <t>臺北市大安區懷生段三小段02158000建號(（陽台5.05平方公尺露台7.57平方公尺））</t>
   </si>
   <si>
+    <t>臺北市大安區通化段一小段01814000建號（（陽台16.18平方公尺)）</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01616000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01759000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01760000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01761000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01762000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01769000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01770000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01825000建號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段01826000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段01814000建號（（陽台16.18平方公尺)）</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01616000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01759000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01760000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01761000</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01762000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01769000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01770000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01825000建號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段01826000建號</t>
-  </si>
-  <si>
     <t>100000分之303</t>
   </si>
   <si>
-    <t>100000分</t>
-  </si>
-  <si>
-    <t>100000之303</t>
-  </si>
-  <si>
-    <t>分</t>
-  </si>
-  <si>
     <t>95年03月15日</t>
   </si>
   <si>
-    <t>95年03月</t>
-  </si>
-  <si>
-    <t>crxis貝賣</t>
-  </si>
-  <si>
     <t>曰產</t>
   </si>
   <si>
@@ -284,6 +278,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>南亞</t>
   </si>
   <si>
     <t>台灣積電</t>
@@ -762,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,213 +817,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2659</v>
+        <v>1808</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1322</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00338473110191801</v>
+        <v>0.0034</v>
       </c>
       <c r="Q2" s="2">
-        <v>9</v>
+        <v>6.1472</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4324.24</v>
+        <v>2659</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>1322</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.007721</v>
+        <v>0.00338473110191801</v>
       </c>
       <c r="Q3" s="2">
-        <v>33.38745704</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>3083.12</v>
+        <v>4324.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>1322</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>6e-05</v>
+        <v>0.007721</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.1849872</v>
+        <v>33.38745704</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>117</v>
+        <v>3083.12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>1322</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>6e-05</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.1849872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="2">
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P6" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>23.4</v>
       </c>
     </row>
@@ -1036,356 +1086,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1880257</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1">
-        <v>62.37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2">
-        <v>131.42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2">
-        <v>163.72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2">
-        <v>88.29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>36.83</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2">
-        <v>51.15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2">
-        <v>186.48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2">
-        <v>480.06</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2">
-        <v>547.61</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1132.07</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2">
-        <v>605.17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1395,19 +1095,721 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1880257</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1880257</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>62.37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2">
+        <v>131.42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>131.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2">
+        <v>163.72</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>163.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>88.29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.2675187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2">
+        <v>36.83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>27</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.1115949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>51.15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>28</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.1549845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2">
+        <v>186.48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2">
+        <v>29</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.5650344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>480.06</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="2">
+        <v>30</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1.4545818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>547.61</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="2">
+        <v>31</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.6592583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1132.07</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="2">
+        <v>32</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.4301721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2">
+        <v>605.17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="2">
+        <v>33</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.00303</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1.8336651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C1" s="1">
         <v>1275</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1">
         <v>376000</v>
@@ -1415,25 +1817,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1275</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2">
+        <v>376000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1798</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1798</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1868,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1451,10 +1876,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1">
         <v>50000</v>
@@ -1462,15 +1887,29 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
         <v>100000</v>
       </c>
     </row>
@@ -1481,7 +1920,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1489,16 +1928,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1">
         <v>569877</v>
@@ -1506,421 +1945,441 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
-        <v>24364</v>
+        <v>569877</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2">
-        <v>16434</v>
+        <v>24364</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
-        <v>50</v>
+        <v>16434</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2">
-        <v>117869</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
-        <v>143338</v>
+        <v>117869</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="2">
-        <v>22891</v>
+        <v>143338</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>921</v>
+        <v>22891</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2">
-        <v>265313</v>
+        <v>921</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2">
-        <v>685728</v>
+        <v>265313</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F11" s="2">
-        <v>652044</v>
+        <v>685728</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2">
-        <v>281</v>
+        <v>652044</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2">
-        <v>345298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2">
-        <v>163927</v>
+        <v>345298</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2">
-        <v>760398</v>
+        <v>163927</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
-        <v>881899</v>
+        <v>760398</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2">
-        <v>54</v>
+        <v>881899</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2">
-        <v>5805861</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2">
-        <v>61292</v>
+        <v>5805861</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2">
-        <v>76366</v>
+        <v>61292</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2">
-        <v>2335893</v>
+        <v>76366</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22" s="2">
+        <v>2335893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2">
         <v>1000000</v>
       </c>
     </row>
@@ -1931,7 +2390,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1945,13 +2404,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1980,574 +2439,618 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>198</v>
+        <v>8325</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
-        <v>1980</v>
+        <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>1322</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>21055</v>
+        <v>198</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
-        <v>210550</v>
+        <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>1322</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N3" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>26924</v>
+        <v>21055</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2">
-        <v>269240</v>
+        <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>1322</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N4" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
-        <v>6188</v>
+        <v>26924</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
-        <v>61880</v>
+        <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>1322</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N5" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>543</v>
+        <v>6188</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2">
-        <v>5430</v>
+        <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2">
         <v>1322</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N6" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>331</v>
+        <v>543</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2">
-        <v>3310</v>
+        <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2">
         <v>1322</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N7" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>1416</v>
+        <v>331</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2">
-        <v>14160</v>
+        <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2">
         <v>1322</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>12964</v>
+        <v>1416</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2">
-        <v>129640</v>
+        <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2">
         <v>1322</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N9" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>69</v>
+        <v>12964</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2">
-        <v>690</v>
+        <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2">
         <v>1322</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N10" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>101</v>
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>69</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2">
-        <v>94350</v>
+        <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L11" s="2">
         <v>1322</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N11" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
-        <v>925</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2">
-        <v>9250</v>
+        <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L12" s="2">
         <v>1322</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N12" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>52</v>
+        <v>925</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>520</v>
+        <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2">
         <v>1322</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N13" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>100000</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2">
-        <v>1000000</v>
+        <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L14" s="2">
         <v>1322</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N14" s="2">
-        <v>104</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>102</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2557,7 +3060,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2565,13 +3068,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>60.36</v>
@@ -2580,7 +3083,7 @@
         <v>22.84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1">
         <v>41496.53</v>
@@ -2588,209 +3091,235 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
-        <v>8.06</v>
+        <v>60.36</v>
       </c>
       <c r="F2" s="2">
-        <v>116.18</v>
+        <v>22.84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2">
-        <v>28185.97</v>
+        <v>41496.53</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
-        <v>85.83</v>
+        <v>8.06</v>
       </c>
       <c r="F3" s="2">
-        <v>9.51</v>
+        <v>116.18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H3" s="2">
-        <v>32388.53</v>
+        <v>28185.97</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="2">
-        <v>27.66</v>
+        <v>85.83</v>
       </c>
       <c r="F4" s="2">
-        <v>83.19</v>
+        <v>9.51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H4" s="2">
-        <v>69261.17</v>
+        <v>32388.53</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
-        <v>24.88</v>
+        <v>27.66</v>
       </c>
       <c r="F5" s="2">
-        <v>103.08</v>
+        <v>83.19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="2">
-        <v>77195.38</v>
+        <v>69261.17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2">
-        <v>1417.48</v>
+        <v>24.88</v>
       </c>
       <c r="F6" s="2">
-        <v>25.26</v>
+        <v>103.08</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="2">
-        <v>1077746.9</v>
+        <v>77195.38</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2">
-        <v>25.27</v>
+        <v>1417.48</v>
       </c>
       <c r="F7" s="2">
-        <v>89.31</v>
+        <v>25.26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2">
-        <v>89552.35</v>
+        <v>1077746.9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2">
-        <v>101.89</v>
+        <v>25.27</v>
       </c>
       <c r="F8" s="2">
-        <v>30.9</v>
+        <v>89.31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H8" s="2">
-        <v>94766.87</v>
+        <v>89552.35</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2">
+        <v>101.89</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="2">
+        <v>94766.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>120</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2">
         <v>71.55</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>43.61</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="2">
         <v>93920.89</v>
       </c>
     </row>
@@ -2801,23 +3330,40 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1">
+        <v>2773800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2">
         <v>2773800</v>
       </c>
     </row>
@@ -2828,7 +3374,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2836,83 +3382,97 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>139</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -181,19 +181,22 @@
     <t>95年03月15日</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>曰產</t>
   </si>
   <si>
+    <t>LEXUS</t>
+  </si>
+  <si>
     <t>93年07月20日</t>
   </si>
   <si>
+    <t>101年02月17曰</t>
+  </si>
+  <si>
     <t>貝賣</t>
-  </si>
-  <si>
-    <t>LEXUS</t>
-  </si>
-  <si>
-    <t>101年02月17曰</t>
   </si>
   <si>
     <t>1192000</t>
@@ -1095,22 +1098,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1">
         <v>1880257</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1118,22 +1121,22 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>1880257</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1789,38 +1792,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1">
-        <v>1275</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1">
-        <v>376000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>1275</v>
@@ -1829,21 +1853,42 @@
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2">
         <v>376000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
         <v>1798</v>
@@ -1858,7 +1903,28 @@
         <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1876,7 +1942,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -1890,7 +1956,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1904,7 +1970,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -1928,13 +1994,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -1948,13 +2014,13 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -1968,13 +2034,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -1988,13 +2054,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -2008,13 +2074,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -2028,13 +2094,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -2048,16 +2114,16 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2">
         <v>143338</v>
@@ -2068,13 +2134,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2088,16 +2154,16 @@
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2">
         <v>921</v>
@@ -2108,13 +2174,13 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2128,16 +2194,16 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2">
         <v>685728</v>
@@ -2148,16 +2214,16 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2">
         <v>652044</v>
@@ -2168,13 +2234,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
@@ -2188,13 +2254,13 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -2208,13 +2274,13 @@
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
@@ -2228,13 +2294,13 @@
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -2248,13 +2314,13 @@
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2268,13 +2334,13 @@
         <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -2288,13 +2354,13 @@
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
@@ -2308,13 +2374,13 @@
         <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2328,16 +2394,16 @@
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2">
         <v>76366</v>
@@ -2348,13 +2414,13 @@
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>27</v>
@@ -2368,13 +2434,13 @@
         <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>27</v>
@@ -2404,13 +2470,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2442,7 +2508,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2454,13 +2520,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -2486,7 +2552,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2498,13 +2564,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
@@ -2530,7 +2596,7 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2542,13 +2608,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>35</v>
@@ -2574,7 +2640,7 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2586,13 +2652,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>35</v>
@@ -2618,7 +2684,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2630,13 +2696,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>35</v>
@@ -2662,7 +2728,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2674,13 +2740,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2">
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
@@ -2706,7 +2772,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2718,13 +2784,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>35</v>
@@ -2750,7 +2816,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2762,13 +2828,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2">
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>35</v>
@@ -2794,7 +2860,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2806,13 +2872,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2">
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>35</v>
@@ -2838,7 +2904,7 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -2850,13 +2916,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>35</v>
@@ -2882,25 +2948,25 @@
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>35</v>
@@ -2926,7 +2992,7 @@
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -2938,13 +3004,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>35</v>
@@ -2970,7 +3036,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -2982,13 +3048,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>35</v>
@@ -3014,10 +3080,10 @@
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2">
         <v>100000</v>
@@ -3026,13 +3092,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>35</v>
@@ -3068,13 +3134,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1">
         <v>60.36</v>
@@ -3083,7 +3149,7 @@
         <v>22.84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1">
         <v>41496.53</v>
@@ -3094,13 +3160,13 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -3109,7 +3175,7 @@
         <v>22.84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2" s="2">
         <v>41496.53</v>
@@ -3120,13 +3186,13 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -3135,7 +3201,7 @@
         <v>116.18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H3" s="2">
         <v>28185.97</v>
@@ -3146,13 +3212,13 @@
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -3161,7 +3227,7 @@
         <v>9.51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H4" s="2">
         <v>32388.53</v>
@@ -3172,13 +3238,13 @@
         <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -3187,7 +3253,7 @@
         <v>83.19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H5" s="2">
         <v>69261.17</v>
@@ -3198,13 +3264,13 @@
         <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -3213,7 +3279,7 @@
         <v>103.08</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H6" s="2">
         <v>77195.38</v>
@@ -3224,13 +3290,13 @@
         <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2">
         <v>1417.48</v>
@@ -3239,7 +3305,7 @@
         <v>25.26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H7" s="2">
         <v>1077746.9</v>
@@ -3250,13 +3316,13 @@
         <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2">
         <v>25.27</v>
@@ -3265,7 +3331,7 @@
         <v>89.31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H8" s="2">
         <v>89552.35</v>
@@ -3276,13 +3342,13 @@
         <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2">
         <v>101.89</v>
@@ -3291,7 +3357,7 @@
         <v>30.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H9" s="2">
         <v>94766.87</v>
@@ -3302,13 +3368,13 @@
         <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2">
         <v>71.55</v>
@@ -3317,7 +3383,7 @@
         <v>43.61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H10" s="2">
         <v>93920.89</v>
@@ -3338,7 +3404,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -3355,7 +3421,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3382,10 +3448,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -3396,10 +3462,10 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -3410,10 +3476,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -3424,10 +3490,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -3438,10 +3504,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -3452,13 +3518,13 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3466,10 +3532,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -181,6 +181,9 @@
     <t>95年03月15日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>1192000</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -1098,22 +1104,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1">
         <v>1880257</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1121,22 +1127,22 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>1880257</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1234,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>35</v>
@@ -1281,7 +1287,7 @@
         <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>35</v>
@@ -1334,7 +1340,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>35</v>
@@ -1387,7 +1393,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
@@ -1440,7 +1446,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>35</v>
@@ -1493,7 +1499,7 @@
         <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>35</v>
@@ -1546,7 +1552,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>35</v>
@@ -1599,7 +1605,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>35</v>
@@ -1652,7 +1658,7 @@
         <v>33</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>35</v>
@@ -1705,7 +1711,7 @@
         <v>33</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>35</v>
@@ -1758,7 +1764,7 @@
         <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>35</v>
@@ -1803,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1844,7 +1850,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>1275</v>
@@ -1853,16 +1859,16 @@
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
         <v>376000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -1888,7 +1894,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>1798</v>
@@ -1897,16 +1903,16 @@
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
@@ -1942,7 +1948,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -1956,7 +1962,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1970,7 +1976,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -1994,13 +2000,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -2014,13 +2020,13 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -2034,13 +2040,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -2054,13 +2060,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -2074,13 +2080,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -2094,13 +2100,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -2114,16 +2120,16 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" s="2">
         <v>143338</v>
@@ -2134,13 +2140,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2154,16 +2160,16 @@
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2">
         <v>921</v>
@@ -2174,13 +2180,13 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2194,16 +2200,16 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2">
         <v>685728</v>
@@ -2214,16 +2220,16 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2">
         <v>652044</v>
@@ -2234,13 +2240,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
@@ -2254,13 +2260,13 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -2274,13 +2280,13 @@
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
@@ -2294,13 +2300,13 @@
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -2314,13 +2320,13 @@
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2334,13 +2340,13 @@
         <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -2354,13 +2360,13 @@
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
@@ -2374,13 +2380,13 @@
         <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2394,16 +2400,16 @@
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2">
         <v>76366</v>
@@ -2414,13 +2420,13 @@
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>27</v>
@@ -2434,13 +2440,13 @@
         <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>27</v>
@@ -2470,13 +2476,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2508,7 +2514,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2520,13 +2526,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -2552,7 +2558,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2564,13 +2570,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
@@ -2596,7 +2602,7 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2608,13 +2614,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>35</v>
@@ -2640,7 +2646,7 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2652,13 +2658,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>35</v>
@@ -2684,7 +2690,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2696,13 +2702,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>35</v>
@@ -2728,7 +2734,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2740,13 +2746,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2">
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
@@ -2772,7 +2778,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2784,13 +2790,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>35</v>
@@ -2816,7 +2822,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2828,13 +2834,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2">
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>35</v>
@@ -2860,7 +2866,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2872,13 +2878,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2">
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>35</v>
@@ -2904,7 +2910,7 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -2916,13 +2922,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>35</v>
@@ -2948,25 +2954,25 @@
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>35</v>
@@ -2992,7 +2998,7 @@
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -3004,13 +3010,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>35</v>
@@ -3036,7 +3042,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -3048,13 +3054,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>35</v>
@@ -3080,10 +3086,10 @@
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15" s="2">
         <v>100000</v>
@@ -3092,13 +3098,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>35</v>
@@ -3134,13 +3140,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1">
         <v>60.36</v>
@@ -3149,7 +3155,7 @@
         <v>22.84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1">
         <v>41496.53</v>
@@ -3160,13 +3166,13 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -3175,7 +3181,7 @@
         <v>22.84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H2" s="2">
         <v>41496.53</v>
@@ -3186,13 +3192,13 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -3201,7 +3207,7 @@
         <v>116.18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2">
         <v>28185.97</v>
@@ -3212,13 +3218,13 @@
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -3227,7 +3233,7 @@
         <v>9.51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H4" s="2">
         <v>32388.53</v>
@@ -3238,13 +3244,13 @@
         <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -3253,7 +3259,7 @@
         <v>83.19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H5" s="2">
         <v>69261.17</v>
@@ -3264,13 +3270,13 @@
         <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -3279,7 +3285,7 @@
         <v>103.08</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H6" s="2">
         <v>77195.38</v>
@@ -3290,13 +3296,13 @@
         <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2">
         <v>1417.48</v>
@@ -3305,7 +3311,7 @@
         <v>25.26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H7" s="2">
         <v>1077746.9</v>
@@ -3316,13 +3322,13 @@
         <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2">
         <v>25.27</v>
@@ -3331,7 +3337,7 @@
         <v>89.31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H8" s="2">
         <v>89552.35</v>
@@ -3342,13 +3348,13 @@
         <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2">
         <v>101.89</v>
@@ -3357,7 +3363,7 @@
         <v>30.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H9" s="2">
         <v>94766.87</v>
@@ -3368,13 +3374,13 @@
         <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2">
         <v>71.55</v>
@@ -3383,7 +3389,7 @@
         <v>43.61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H10" s="2">
         <v>93920.89</v>
@@ -3404,7 +3410,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -3421,7 +3427,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3448,10 +3454,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -3462,10 +3468,10 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -3476,10 +3482,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -3490,10 +3496,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -3504,10 +3510,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -3518,13 +3524,13 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3532,10 +3538,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -208,57 +208,69 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行信義分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行農安分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>中華商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行仁愛分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行萬華分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>上海商業儲蓄銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>台北富邦商業銀行農安分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>中華商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行仁愛分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行萬華分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>上海商業儲蓄銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -280,13 +292,13 @@
     <t>吳〇庭</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>南亞</t>
@@ -1104,22 +1116,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1">
         <v>1880257</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1127,22 +1139,22 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2">
         <v>1880257</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1940,29 +1952,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1970,19 +2003,61 @@
       <c r="D2" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>100000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1992,41 +2067,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1">
-        <v>569877</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -2034,19 +2130,40 @@
       <c r="F2" s="2">
         <v>569877</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -2054,19 +2171,40 @@
       <c r="F3" s="2">
         <v>24364</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -2074,19 +2212,40 @@
       <c r="F4" s="2">
         <v>16434</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -2094,19 +2253,40 @@
       <c r="F5" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -2114,39 +2294,81 @@
       <c r="F6" s="2">
         <v>117869</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2">
         <v>143338</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2154,39 +2376,81 @@
       <c r="F8" s="2">
         <v>22891</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F9" s="2">
         <v>921</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2194,59 +2458,122 @@
       <c r="F10" s="2">
         <v>265313</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F11" s="2">
         <v>685728</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F12" s="2">
         <v>652044</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
@@ -2254,19 +2581,40 @@
       <c r="F13" s="2">
         <v>281</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -2274,19 +2622,40 @@
       <c r="F14" s="2">
         <v>345298</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
@@ -2294,19 +2663,40 @@
       <c r="F15" s="2">
         <v>163927</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -2314,19 +2704,40 @@
       <c r="F16" s="2">
         <v>760398</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2334,19 +2745,40 @@
       <c r="F17" s="2">
         <v>881899</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -2354,19 +2786,40 @@
       <c r="F18" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
@@ -2374,19 +2827,40 @@
       <c r="F19" s="2">
         <v>5805861</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2394,39 +2868,81 @@
       <c r="F20" s="2">
         <v>61292</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2">
         <v>76366</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>27</v>
@@ -2434,25 +2950,67 @@
       <c r="F22" s="2">
         <v>2335893</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="2">
         <v>1000000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2476,13 +3034,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2514,7 +3072,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2526,13 +3084,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
         <v>83250</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -2558,7 +3116,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2570,13 +3128,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2">
         <v>1980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
@@ -2602,7 +3160,7 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2614,13 +3172,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2">
         <v>210550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>35</v>
@@ -2646,7 +3204,7 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2658,13 +3216,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2">
         <v>269240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>35</v>
@@ -2690,7 +3248,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2702,13 +3260,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2">
         <v>61880</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>35</v>
@@ -2734,7 +3292,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2746,13 +3304,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2">
         <v>5430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
@@ -2778,7 +3336,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2790,13 +3348,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2">
         <v>3310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>35</v>
@@ -2822,7 +3380,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2834,13 +3392,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2">
         <v>14160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>35</v>
@@ -2866,7 +3424,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2878,13 +3436,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2">
         <v>129640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>35</v>
@@ -2910,7 +3468,7 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -2922,13 +3480,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2">
         <v>690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>35</v>
@@ -2954,25 +3512,25 @@
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2">
         <v>94350</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>35</v>
@@ -2998,7 +3556,7 @@
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -3010,13 +3568,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2">
         <v>9250</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>35</v>
@@ -3042,7 +3600,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -3054,13 +3612,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2">
         <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>35</v>
@@ -3086,10 +3644,10 @@
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2">
         <v>100000</v>
@@ -3098,13 +3656,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>35</v>
@@ -3140,13 +3698,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1">
         <v>60.36</v>
@@ -3155,7 +3713,7 @@
         <v>22.84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1">
         <v>41496.53</v>
@@ -3166,13 +3724,13 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>60.36</v>
@@ -3181,7 +3739,7 @@
         <v>22.84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H2" s="2">
         <v>41496.53</v>
@@ -3192,13 +3750,13 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>8.06</v>
@@ -3207,7 +3765,7 @@
         <v>116.18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H3" s="2">
         <v>28185.97</v>
@@ -3218,13 +3776,13 @@
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>85.83</v>
@@ -3233,7 +3791,7 @@
         <v>9.51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H4" s="2">
         <v>32388.53</v>
@@ -3244,13 +3802,13 @@
         <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>27.66</v>
@@ -3259,7 +3817,7 @@
         <v>83.19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H5" s="2">
         <v>69261.17</v>
@@ -3270,13 +3828,13 @@
         <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2">
         <v>24.88</v>
@@ -3285,7 +3843,7 @@
         <v>103.08</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H6" s="2">
         <v>77195.38</v>
@@ -3296,13 +3854,13 @@
         <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2">
         <v>1417.48</v>
@@ -3311,7 +3869,7 @@
         <v>25.26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H7" s="2">
         <v>1077746.9</v>
@@ -3322,13 +3880,13 @@
         <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2">
         <v>25.27</v>
@@ -3337,7 +3895,7 @@
         <v>89.31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H8" s="2">
         <v>89552.35</v>
@@ -3348,13 +3906,13 @@
         <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2">
         <v>101.89</v>
@@ -3363,7 +3921,7 @@
         <v>30.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H9" s="2">
         <v>94766.87</v>
@@ -3374,13 +3932,13 @@
         <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2">
         <v>71.55</v>
@@ -3389,7 +3947,7 @@
         <v>43.61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H10" s="2">
         <v>93920.89</v>
@@ -3410,7 +3968,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -3427,7 +3985,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3454,10 +4012,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -3468,10 +4026,10 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -3482,10 +4040,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -3496,10 +4054,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -3510,10 +4068,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -3524,13 +4082,13 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3538,10 +4096,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -352,37 +352,46 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>施羅德新興亞洲</t>
   </si>
   <si>
+    <t>貝萊德新興歐洲</t>
+  </si>
+  <si>
+    <t>富達歐洲</t>
+  </si>
+  <si>
+    <t>貝萊德拉丁美洲</t>
+  </si>
+  <si>
+    <t>摩根東協</t>
+  </si>
+  <si>
+    <t>摩根大中華</t>
+  </si>
+  <si>
+    <t>坦伯頓全球亞洲成長</t>
+  </si>
+  <si>
+    <t>富達拉丁美洲</t>
+  </si>
+  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>貝萊德新興歐洲</t>
-  </si>
-  <si>
-    <t>富達歐洲</t>
-  </si>
-  <si>
-    <t>貝萊德拉丁美洲</t>
-  </si>
-  <si>
-    <t>摩根東協</t>
-  </si>
-  <si>
-    <t>摩根大中華</t>
-  </si>
-  <si>
-    <t>坦伯頓全球亞洲成長</t>
-  </si>
-  <si>
-    <t>富達拉丁美洲</t>
-  </si>
-  <si>
     <t>歐元</t>
   </si>
   <si>
+    <t>fund</t>
+  </si>
+  <si>
     <t>黃金存摺</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>大都會國際人壽</t>
@@ -1116,22 +1125,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1">
         <v>1880257</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1139,22 +1148,22 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2">
         <v>1880257</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3690,41 +3699,62 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1">
-        <v>60.36</v>
-      </c>
-      <c r="F1" s="1">
-        <v>22.84</v>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="1">
-        <v>41496.53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>88</v>
@@ -3739,13 +3769,34 @@
         <v>22.84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H2" s="2">
         <v>41496.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>113</v>
       </c>
@@ -3765,13 +3816,34 @@
         <v>116.18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H3" s="2">
         <v>28185.97</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>114</v>
       </c>
@@ -3791,13 +3863,34 @@
         <v>9.51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="2">
         <v>32388.53</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>115</v>
       </c>
@@ -3817,13 +3910,34 @@
         <v>83.19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H5" s="2">
         <v>69261.17</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>116</v>
       </c>
@@ -3843,13 +3957,34 @@
         <v>103.08</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H6" s="2">
         <v>77195.38</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>117</v>
       </c>
@@ -3869,13 +4004,34 @@
         <v>25.26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H7" s="2">
         <v>1077746.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>118</v>
       </c>
@@ -3895,13 +4051,34 @@
         <v>89.31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H8" s="2">
         <v>89552.35</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>119</v>
       </c>
@@ -3921,13 +4098,34 @@
         <v>30.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H9" s="2">
         <v>94766.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>120</v>
       </c>
@@ -3947,10 +4145,31 @@
         <v>43.61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H10" s="2">
         <v>93920.89</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3960,32 +4179,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2773800</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3995,6 +4235,27 @@
       </c>
       <c r="E2" s="2">
         <v>2773800</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4012,10 +4273,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -4026,10 +4287,10 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -4040,10 +4301,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -4054,10 +4315,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -4068,10 +4329,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -4082,10 +4343,10 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>86</v>
@@ -4096,10 +4357,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
+++ b/legislator/property/output/normal/吳育昇_2012-04-25_財產申報表_tmpe4eb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -391,24 +391,27 @@
     <t>黃金存摺</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>大都會國際人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>友邦人壽</t>
+  </si>
+  <si>
     <t>大都會終身壽險</t>
   </si>
   <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>友邦人壽</t>
-  </si>
-  <si>
     <t>富邦人壽子女儲蓄保險</t>
   </si>
   <si>
@@ -421,6 +424,15 @@
     <t>南山康寧終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -431,6 +443,9 @@
   </si>
   <si>
     <t>貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1117,53 +1132,95 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1880257</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2">
         <v>1880257</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4265,38 +4322,80 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>135</v>
       </c>
@@ -4304,13 +4403,34 @@
         <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>136</v>
       </c>
@@ -4318,13 +4438,34 @@
         <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>137</v>
       </c>
@@ -4332,13 +4473,34 @@
         <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>138</v>
       </c>
@@ -4346,13 +4508,34 @@
         <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>139</v>
       </c>
@@ -4360,10 +4543,31 @@
         <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1322</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
